--- a/3_ChIP/1_ChIP_peak_distribution/sum_ChIP_peak_chisq_simp.xlsx
+++ b/3_ChIP/1_ChIP_peak_distribution/sum_ChIP_peak_chisq_simp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Huitian/Projects/CD8_DEV_SC/3_ChIP/1_ChIP_peak_distribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB03A797-4219-C845-98EC-6B7E703C296C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FA3AE1CC-FF09-DE42-94F9-3B7F5E6321C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="-34380" yWindow="-14100" windowWidth="28040" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="sum_ChIP_peak_chisq_simp" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,8 +470,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +671,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -824,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -837,6 +851,7 @@
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1194,13 +1209,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.33203125" customWidth="1"/>
+    <col min="1" max="1" width="75.1640625" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="8"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
   </cols>
@@ -1383,45 +1398,47 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>5045</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1603</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2150,25 +2167,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>4470</v>
       </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -2222,28 +2240,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>2344</v>
       </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -2758,82 +2777,82 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>5885</v>
       </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" t="s">
-        <v>15</v>
-      </c>
-      <c r="M57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="E57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>7855</v>
       </c>
-      <c r="C58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K58" t="s">
-        <v>15</v>
-      </c>
-      <c r="L58" t="s">
-        <v>15</v>
-      </c>
-      <c r="M58" t="s">
-        <v>15</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="C58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3210,32 +3229,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="12">
         <v>9817</v>
       </c>
-      <c r="C73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" t="s">
-        <v>15</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="C73" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N73" s="12" t="s">
         <v>15</v>
       </c>
     </row>
